--- a/data/3.7_6.xlsx
+++ b/data/3.7_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/3.7.6Bei-WebATFarme/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D29AD-0970-B441-B075-3405B15D51EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB49EC-FE8D-1C49-A601-12097C8A05C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="2780" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,9 +693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1478,7 +1478,9 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>6</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1499,7 +1501,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>79</v>
@@ -1519,7 +1521,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>36</v>
@@ -1541,7 +1543,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>81</v>
@@ -1563,7 +1565,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>36</v>

--- a/data/3.7_6.xlsx
+++ b/data/3.7_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/3.7.6Bei-WebATFarme/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BB49EC-FE8D-1C49-A601-12097C8A05C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCAC180-7B44-054D-A53E-7FE121BB5563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2780" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="2320" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>编号</t>
   </si>
@@ -287,13 +287,46 @@
   </si>
   <si>
     <t>{'x': 100, 'y': 1000}</t>
+  </si>
+  <si>
+    <t>test_5</t>
+  </si>
+  <si>
+    <t>XX4</t>
+  </si>
+  <si>
+    <t>xxx4</t>
+  </si>
+  <si>
+    <t>file:///Users/swj_795/Desktop/北梦测/pagetest/drag.html</t>
+  </si>
+  <si>
+    <t>拖拽</t>
+  </si>
+  <si>
+    <t>drag_and_drop</t>
+  </si>
+  <si>
+    <t>div1</t>
+  </si>
+  <si>
+    <t>{'by': 'id', 'value': 'div2'}</t>
+  </si>
+  <si>
+    <t>test_6</t>
+  </si>
+  <si>
+    <t>XX5</t>
+  </si>
+  <si>
+    <t>xxx5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +344,14 @@
     <font>
       <sz val="11"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.8000000000000007"/>
@@ -388,12 +429,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,11 +465,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -691,11 +742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26:E35"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -708,7 +759,7 @@
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="109.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1367,13 +1418,11 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7"/>
@@ -1581,8 +1630,178 @@
       <c r="K35" s="1"/>
       <c r="L35" s="6"/>
     </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="L36:L38"/>
     <mergeCell ref="A26:A35"/>
     <mergeCell ref="B26:B35"/>
     <mergeCell ref="C26:C35"/>
@@ -1609,6 +1828,8 @@
     <hyperlink ref="J11" r:id="rId2" xr:uid="{2E2D2188-DE49-1F4B-957F-3E714453F397}"/>
     <hyperlink ref="J19" r:id="rId3" xr:uid="{37773653-ED03-D046-88D4-F95103B66378}"/>
     <hyperlink ref="J26" r:id="rId4" xr:uid="{7B2BD619-9794-8D40-B6CD-095615A8F3E2}"/>
+    <hyperlink ref="J36" r:id="rId5" xr:uid="{6C6B70D4-9AEC-C345-9F0C-4999C420BC74}"/>
+    <hyperlink ref="J39" r:id="rId6" xr:uid="{28C5386F-E323-714A-B4C8-57FDB57DDB56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/3.7_6.xlsx
+++ b/data/3.7_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/3.7.6Bei-WebATFarme/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCAC180-7B44-054D-A53E-7FE121BB5563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7CAAA1-33FD-3C4E-A58B-D2A38BC315D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2320" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="2320" windowWidth="30480" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>编号</t>
   </si>
@@ -320,6 +320,48 @@
   </si>
   <si>
     <t>xxx5</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
+    <t>upload_file</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>upfilea</t>
+  </si>
+  <si>
+    <t>./file/1.jpg</t>
+  </si>
+  <si>
+    <t>test_7</t>
+  </si>
+  <si>
+    <t>XX6</t>
+  </si>
+  <si>
+    <t>xxx6</t>
+  </si>
+  <si>
+    <t>执行js脚本</t>
+  </si>
+  <si>
+    <t>execute_js</t>
+  </si>
+  <si>
+    <t>// 设置抖动
+const intervalId = setInterval(() =&gt; {
+    document.body.style.transform =
+        Math.random() &gt; 0.5 ? 'rotate(1deg)' : 'rotate(-1deg)';
+}, 100);
+// 5 秒后停止抖动并恢复
+setTimeout(() =&gt; {
+    clearInterval(intervalId);
+    document.body.style.transform = 'none';
+}, 5000);</t>
   </si>
 </sst>
 </file>
@@ -437,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,11 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39:D41"/>
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -759,7 +804,7 @@
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="109.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1658,9 +1703,7 @@
         <v>87</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7"/>
@@ -1694,7 +1737,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>36</v>
@@ -1738,9 +1781,7 @@
         <v>35</v>
       </c>
       <c r="K39" s="1"/>
-      <c r="L39" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7"/>
@@ -1751,19 +1792,19 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="5"/>
@@ -1774,7 +1815,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>36</v>
@@ -1790,8 +1831,89 @@
       <c r="K41" s="1"/>
       <c r="L41" s="6"/>
     </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="288">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1">
+        <v>10</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="35">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="L42:L44"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
@@ -1830,6 +1952,7 @@
     <hyperlink ref="J26" r:id="rId4" xr:uid="{7B2BD619-9794-8D40-B6CD-095615A8F3E2}"/>
     <hyperlink ref="J36" r:id="rId5" xr:uid="{6C6B70D4-9AEC-C345-9F0C-4999C420BC74}"/>
     <hyperlink ref="J39" r:id="rId6" xr:uid="{28C5386F-E323-714A-B4C8-57FDB57DDB56}"/>
+    <hyperlink ref="J42" r:id="rId7" xr:uid="{E0542CB6-2788-1348-9B5B-F428C43308B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/3.7_6.xlsx
+++ b/data/3.7_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/3.7.6Bei-WebATFarme/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7CAAA1-33FD-3C4E-A58B-D2A38BC315D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F9471B-AFD2-304B-90CC-903891F0BF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2320" windowWidth="30480" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,8 +790,8 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -913,7 +913,9 @@
         <v>35</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="A4" s="7"/>
@@ -1105,7 +1107,9 @@
         <v>35</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7"/>
@@ -1301,7 +1305,9 @@
         <v>35</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7"/>
@@ -1467,7 +1473,9 @@
         <v>35</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7"/>
@@ -1703,7 +1711,9 @@
         <v>87</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="4"/>
+      <c r="L36" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7"/>
@@ -1781,7 +1791,9 @@
         <v>35</v>
       </c>
       <c r="K39" s="1"/>
-      <c r="L39" s="4"/>
+      <c r="L39" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7"/>
